--- a/log/data_5o_mp_only.xlsx
+++ b/log/data_5o_mp_only.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6.3e-05</t>
+          <t>7.1e-05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -562,17 +562,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6.3e-05</t>
+          <t>7.1e-05</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.01736</t>
+          <t>0.991739</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.0202</t>
+          <t>0.993653</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21.7283</t>
+          <t>20.8381</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>50.9855</t>
+          <t>42.2296</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>7.1e-05</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -650,17 +650,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>7.1e-05</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.198951</t>
+          <t>1.46956</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.201565</t>
+          <t>1.47154</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>22.5424</t>
+          <t>28.3067</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>49.9086</t>
+          <t>61.9284</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000241</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -738,17 +738,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000241</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.202007</t>
+          <t>1.31311</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.205917</t>
+          <t>1.31505</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>22.9232</t>
+          <t>28.7839</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>53.1272</t>
+          <t>55.2238</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000144</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.18588</t>
+          <t>1.32761</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.189774</t>
+          <t>1.32958</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>16.5024</t>
+          <t>29.1791</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>44.3454</t>
+          <t>65.4261</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>0.000313</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -914,17 +914,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>0.000313</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.213263</t>
+          <t>1.0783</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.217139</t>
+          <t>1.08044</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23.0117</t>
+          <t>28.3815</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>54.0074</t>
+          <t>62.9499</t>
         </is>
       </c>
     </row>
@@ -987,7 +987,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.000154</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.840769</t>
+          <t>1.45167</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.844637</t>
+          <t>1.45371</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>21.5557</t>
+          <t>29.5853</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>50.4035</t>
+          <t>68.3398</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1090,17 +1090,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.17137</t>
+          <t>1.2547</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.175236</t>
+          <t>1.25673</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22.9807</t>
+          <t>20.3638</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>55.7635</t>
+          <t>44.7551</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>0.000125</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1178,17 +1178,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>0.000125</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.29441</t>
+          <t>1.20561</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.298722</t>
+          <t>1.2074</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>21.1576</t>
+          <t>27.5129</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>51.58</t>
+          <t>58.4204</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.305887</t>
+          <t>1.25873</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.309704</t>
+          <t>1.26066</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>25.5516</t>
+          <t>30.3836</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>46.8077</t>
+          <t>56.5092</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.982665</t>
+          <t>1.11647</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.986815</t>
+          <t>1.11836</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>22.4205</t>
+          <t>24.0785</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>49.0355</t>
+          <t>46.1371</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.171941</t>
+          <t>1.34043</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.175846</t>
+          <t>1.34259</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>23.2558</t>
+          <t>27.7798</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>55.1026</t>
+          <t>59.6783</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>7.2e-05</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1530,17 +1530,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>7.2e-05</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.221646</t>
+          <t>1.257</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.225721</t>
+          <t>1.25894</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>22.9106</t>
+          <t>29.6007</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>50.1543</t>
+          <t>60.8143</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>5.5e-05</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1618,17 +1618,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>5.5e-05</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.886503</t>
+          <t>1.17042</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.890771</t>
+          <t>1.17228</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18.7597</t>
+          <t>23.8479</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>47.9796</t>
+          <t>45.0597</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>0.000235</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1706,17 +1706,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>0.000235</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.182657</t>
+          <t>1.27621</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.18643</t>
+          <t>1.27845</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>16.4033</t>
+          <t>32.4174</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>43.6591</t>
+          <t>62.4931</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.9e-05</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>4.9e-05</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.969259</t>
+          <t>1.39387</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.973448</t>
+          <t>1.39578</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>21.3962</t>
+          <t>28.971</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>50.8518</t>
+          <t>60.1073</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1882,17 +1882,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.889763</t>
+          <t>1.29504</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.893653</t>
+          <t>1.29698</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>22.3828</t>
+          <t>28.9946</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>52.219</t>
+          <t>60.1163</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1970,17 +1970,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.967334</t>
+          <t>1.2991</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.971226</t>
+          <t>1.30093</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>22.3741</t>
+          <t>29.336</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>50.6441</t>
+          <t>59.6896</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.880152</t>
+          <t>1.47142</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.88395</t>
+          <t>1.47338</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20.8899</t>
+          <t>38.5323</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>49.2327</t>
+          <t>69.4675</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2146,17 +2146,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>5.6e-05</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.01761</t>
+          <t>1.5484</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.02185</t>
+          <t>1.55034</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>22.9551</t>
+          <t>28.6984</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>55.7455</t>
+          <t>63.8201</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2234,17 +2234,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.184817</t>
+          <t>1.37369</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.188749</t>
+          <t>1.37556</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>22.9934</t>
+          <t>28.7417</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>49.613</t>
+          <t>64.2008</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2322,17 +2322,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000121</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.185697</t>
+          <t>1.47315</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.189629</t>
+          <t>1.47509</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20.5107</t>
+          <t>28.4019</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>46.1149</t>
+          <t>54.861</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2410,17 +2410,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.211916</t>
+          <t>1.61507</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.215733</t>
+          <t>1.61733</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>21.1763</t>
+          <t>29.2211</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>50.6702</t>
+          <t>57.3766</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000163</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2498,17 +2498,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000163</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.00563</t>
+          <t>1.03766</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.00974</t>
+          <t>1.03976</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>22.0027</t>
+          <t>30.2954</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>50.8866</t>
+          <t>63.2951</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2586,17 +2586,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.207586</t>
+          <t>0.852834</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.21143</t>
+          <t>0.854732</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>20.9179</t>
+          <t>28.5971</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>50.8261</t>
+          <t>59.3096</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2674,17 +2674,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>8.8e-05</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.171492</t>
+          <t>1.32875</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.17529</t>
+          <t>1.33068</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>21.7704</t>
+          <t>29.3125</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>54.5577</t>
+          <t>62.4682</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.206847</t>
+          <t>1.49158</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.21074</t>
+          <t>1.49348</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>19.4215</t>
+          <t>38.7725</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>47.1272</t>
+          <t>73.3105</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2850,17 +2850,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.200222</t>
+          <t>1.16963</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.204074</t>
+          <t>1.17151</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18.9716</t>
+          <t>22.9855</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>49.3923</t>
+          <t>55.0822</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2938,17 +2938,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.270862</t>
+          <t>1.56192</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.274673</t>
+          <t>1.56403</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23.537</t>
+          <t>29.3469</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>47.6679</t>
+          <t>62.1087</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.196657</t>
+          <t>1.31188</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.200673</t>
+          <t>1.31378</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>25.903</t>
+          <t>31.4027</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>56.9048</t>
+          <t>64.4649</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3114,17 +3114,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.06075</t>
+          <t>1.37565</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.06454</t>
+          <t>1.37766</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>21.4478</t>
+          <t>33.0563</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>47.7713</t>
+          <t>64.4438</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>0.000211</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3202,17 +3202,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>0.000211</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.202318</t>
+          <t>1.41044</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.206421</t>
+          <t>1.41236</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3232,12 +3232,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23.0261</t>
+          <t>28.5226</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>51.6901</t>
+          <t>63.9728</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3290,17 +3290,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.164742</t>
+          <t>0.818083</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.168526</t>
+          <t>0.819888</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23.0027</t>
+          <t>20.7298</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>52.1077</t>
+          <t>44.3885</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>3.5e-05</t>
+          <t>0.000232</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3.5e-05</t>
+          <t>0.000232</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.182533</t>
+          <t>1.50426</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.186329</t>
+          <t>1.50672</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19.0264</t>
+          <t>30.6176</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>46.3835</t>
+          <t>58.8547</t>
         </is>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3466,17 +3466,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.22759</t>
+          <t>1.21576</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.230745</t>
+          <t>1.21784</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>22.9255</t>
+          <t>28.7218</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>54.6995</t>
+          <t>59.2947</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>5.7e-05</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>5.7e-05</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.911649</t>
+          <t>0.986562</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.915769</t>
+          <t>0.988366</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>20.8631</t>
+          <t>17.2749</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>51.0857</t>
+          <t>47.1159</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3642,17 +3642,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.212463</t>
+          <t>1.11033</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.215826</t>
+          <t>1.11224</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13.857</t>
+          <t>24.0069</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>38.7352</t>
+          <t>50.2876</t>
         </is>
       </c>
     </row>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3.5e-05</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3730,17 +3730,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>3.5e-05</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.161237</t>
+          <t>1.27792</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.165003</t>
+          <t>1.28004</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>18.9021</t>
+          <t>32.7986</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>45.8923</t>
+          <t>62.6219</t>
         </is>
       </c>
     </row>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3818,17 +3818,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.941358</t>
+          <t>1.47747</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.945417</t>
+          <t>1.47944</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>13.196</t>
+          <t>28.6036</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>38.4406</t>
+          <t>61.733</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3906,17 +3906,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.209519</t>
+          <t>1.17772</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.213408</t>
+          <t>1.17974</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>22.3187</t>
+          <t>23.9838</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>49.3312</t>
+          <t>51.2291</t>
         </is>
       </c>
     </row>
@@ -3979,7 +3979,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3994,17 +3994,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>0.000132</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.159055</t>
+          <t>1.19987</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.162835</t>
+          <t>1.20179</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>21.1036</t>
+          <t>28.4308</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>51.8616</t>
+          <t>60.8284</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4082,17 +4082,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.00013</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.954357</t>
+          <t>1.281</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.958197</t>
+          <t>1.28312</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4112,12 +4112,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>23.2181</t>
+          <t>26.6046</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>54.5044</t>
+          <t>58.1039</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4170,17 +4170,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.946901</t>
+          <t>1.3525</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.950737</t>
+          <t>1.35438</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4200,12 +4200,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>22.5507</t>
+          <t>28.4931</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>51.9914</t>
+          <t>53.7329</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4258,17 +4258,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>7.9e-05</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.03632</t>
+          <t>1.27328</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.04025</t>
+          <t>1.27542</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23.2525</t>
+          <t>33.496</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>53.4128</t>
+          <t>63.9182</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>3.3e-05</t>
+          <t>0.000175</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3.3e-05</t>
+          <t>0.000175</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.15785</t>
+          <t>1.38448</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.161617</t>
+          <t>1.38695</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4376,12 +4376,12 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23.1381</t>
+          <t>30.0956</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>51.8776</t>
+          <t>63.3616</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4434,17 +4434,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>0.000127</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.212179</t>
+          <t>1.36795</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.215946</t>
+          <t>1.37025</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>22.5242</t>
+          <t>28.9141</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>53.2211</t>
+          <t>63.7169</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4522,17 +4522,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>0.000159</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.00392</t>
+          <t>1.54064</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1.00774</t>
+          <t>1.54284</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>22.6516</t>
+          <t>29.7475</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>52.1618</t>
+          <t>59.9894</t>
         </is>
       </c>
     </row>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4610,17 +4610,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.929393</t>
+          <t>1.48567</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.933378</t>
+          <t>1.48775</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4640,12 +4640,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>21.3296</t>
+          <t>28.4737</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>51.4164</t>
+          <t>62.7377</t>
         </is>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4698,17 +4698,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.929529</t>
+          <t>1.10434</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.933346</t>
+          <t>1.10633</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>22.9337</t>
+          <t>30.1276</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>54.3087</t>
+          <t>62.6748</t>
         </is>
       </c>
     </row>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>3.5e-05</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4786,17 +4786,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3.5e-05</t>
+          <t>8.6e-05</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.219777</t>
+          <t>1.09509</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.223961</t>
+          <t>1.09694</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>18.3164</t>
+          <t>23.809</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>46.5114</t>
+          <t>51.4348</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4874,17 +4874,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>0.000157</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.989359</t>
+          <t>1.37598</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.993551</t>
+          <t>1.37804</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>19.4198</t>
+          <t>28.5977</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>49.6153</t>
+          <t>60.0717</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4962,17 +4962,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.969901</t>
+          <t>1.42768</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.974152</t>
+          <t>1.42994</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>22.9886</t>
+          <t>29.2166</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>52.283</t>
+          <t>61.5537</t>
         </is>
       </c>
     </row>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5050,17 +5050,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000122</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.232224</t>
+          <t>1.09812</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.236026</t>
+          <t>1.10015</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>18.9052</t>
+          <t>28.8831</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>46.9882</t>
+          <t>55.7457</t>
         </is>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5138,17 +5138,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>6e-05</t>
+          <t>0.000145</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.916015</t>
+          <t>1.26644</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.919932</t>
+          <t>1.26925</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>18.8519</t>
+          <t>20.7388</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>46.5757</t>
+          <t>50.152</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5226,17 +5226,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.897172</t>
+          <t>1.21157</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.901135</t>
+          <t>1.21356</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>23.4818</t>
+          <t>24.0867</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>51.3055</t>
+          <t>56.1785</t>
         </is>
       </c>
     </row>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5314,17 +5314,17 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>3.7e-05</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.205805</t>
+          <t>1.39646</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.209623</t>
+          <t>1.39845</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>21.7795</t>
+          <t>37.7412</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>53.6067</t>
+          <t>72.2293</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5402,17 +5402,17 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.198343</t>
+          <t>1.46429</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.202143</t>
+          <t>1.46647</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>23.2042</t>
+          <t>29.0698</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>52.8266</t>
+          <t>67.9708</t>
         </is>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5490,17 +5490,17 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.384993</t>
+          <t>1.3465</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.38888</t>
+          <t>1.34844</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>21.3931</t>
+          <t>24.524</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>51.5011</t>
+          <t>57.2744</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5578,17 +5578,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>5.8e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.209778</t>
+          <t>1.35072</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.213628</t>
+          <t>1.35271</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>23.0409</t>
+          <t>30.096</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>53.4531</t>
+          <t>60.1302</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>9.3e-05</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.979848</t>
+          <t>1.15974</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.983831</t>
+          <t>1.16177</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>17.8361</t>
+          <t>23.9063</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>43.9032</t>
+          <t>51.353</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5754,17 +5754,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.01669</t>
+          <t>1.13051</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1.02067</t>
+          <t>1.13246</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>21.6054</t>
+          <t>24.1512</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>52.2752</t>
+          <t>46.9751</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>5e-05</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5842,17 +5842,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>4e-05</t>
+          <t>5e-05</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1.03925</t>
+          <t>1.09121</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>1.04313</t>
+          <t>1.09314</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5872,12 +5872,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>24.2873</t>
+          <t>32.862</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>51.9151</t>
+          <t>61.8872</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5930,17 +5930,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.237505</t>
+          <t>1.20548</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.24144</t>
+          <t>1.20725</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>22.482</t>
+          <t>27.6043</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>50.9457</t>
+          <t>59.5781</t>
         </is>
       </c>
     </row>
@@ -6003,7 +6003,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6018,17 +6018,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>3.8e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.159059</t>
+          <t>1.10809</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.162838</t>
+          <t>1.1099</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>22.6515</t>
+          <t>23.7858</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>55.0654</t>
+          <t>50.9807</t>
         </is>
       </c>
     </row>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5.5e-05</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6106,17 +6106,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>5.5e-05</t>
+          <t>0.000166</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.03598</t>
+          <t>1.3205</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1.03859</t>
+          <t>1.32247</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>22.9402</t>
+          <t>23.8311</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>53.0597</t>
+          <t>60.0026</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6194,17 +6194,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.16368</t>
+          <t>1.30411</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.167432</t>
+          <t>1.30606</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>17.3043</t>
+          <t>35.7893</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>43.542</t>
+          <t>64.3318</t>
         </is>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>0.000214</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6282,17 +6282,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>4.6e-05</t>
+          <t>0.000214</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.968269</t>
+          <t>1.45213</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.972158</t>
+          <t>1.45417</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21.5871</t>
+          <t>29.0605</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>51.0907</t>
+          <t>61.9503</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6370,17 +6370,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.998613</t>
+          <t>1.16606</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1.00254</t>
+          <t>1.168</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>22.9869</t>
+          <t>28.5971</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>54.9471</t>
+          <t>58.1577</t>
         </is>
       </c>
     </row>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6458,17 +6458,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>4.8e-05</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1.02962</t>
+          <t>1.07522</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1.03369</t>
+          <t>1.07707</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17.0016</t>
+          <t>34.8791</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>39.0113</t>
+          <t>67.0392</t>
         </is>
       </c>
     </row>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6546,17 +6546,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1.06415</t>
+          <t>1.27561</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1.06834</t>
+          <t>1.2776</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21.5848</t>
+          <t>18.1661</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>53.5709</t>
+          <t>51.4707</t>
         </is>
       </c>
     </row>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>9e-05</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6634,17 +6634,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>9e-05</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.865205</t>
+          <t>1.39195</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.869015</t>
+          <t>1.3939</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>15.3956</t>
+          <t>30.1854</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>38.4615</t>
+          <t>64.3522</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6722,17 +6722,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.202672</t>
+          <t>1.19108</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.206772</t>
+          <t>1.19294</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>17.0027</t>
+          <t>28.3664</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>38.3512</t>
+          <t>58.7611</t>
         </is>
       </c>
     </row>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6810,17 +6810,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>4.7e-05</t>
+          <t>0.000158</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.850681</t>
+          <t>1.26317</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.854521</t>
+          <t>1.26503</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>19.4642</t>
+          <t>28.4062</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>49.0815</t>
+          <t>58.5996</t>
         </is>
       </c>
     </row>
@@ -6883,7 +6883,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6898,17 +6898,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000141</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.345731</t>
+          <t>1.29172</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.349714</t>
+          <t>1.29368</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6928,12 +6928,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>21.0845</t>
+          <t>28.6551</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>46.3979</t>
+          <t>58.6108</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6986,17 +6986,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>5.4e-05</t>
+          <t>0.000134</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.999636</t>
+          <t>1.39322</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1.00372</t>
+          <t>1.39525</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7016,12 +7016,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>16.8254</t>
+          <t>29.1558</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>45.0768</t>
+          <t>58.9658</t>
         </is>
       </c>
     </row>
@@ -7059,7 +7059,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7074,17 +7074,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.223587</t>
+          <t>1.10168</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.227491</t>
+          <t>1.10365</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>22.4064</t>
+          <t>17.3011</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>53.6456</t>
+          <t>48.0677</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>0.000169</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7162,17 +7162,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>0.000169</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.958051</t>
+          <t>1.40581</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.960704</t>
+          <t>1.4079</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>22.2078</t>
+          <t>24.241</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>51.3279</t>
+          <t>55.9002</t>
         </is>
       </c>
     </row>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7250,17 +7250,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>4.2e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.20818</t>
+          <t>1.41731</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.211977</t>
+          <t>1.41928</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>23.1454</t>
+          <t>28.6564</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>55.4115</t>
+          <t>61.9054</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000178</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7338,17 +7338,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000178</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0.44419</t>
+          <t>1.39065</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.448198</t>
+          <t>1.39263</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>21.9555</t>
+          <t>29.0862</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>45.8705</t>
+          <t>62.9441</t>
         </is>
       </c>
     </row>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7426,17 +7426,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>8.2e-05</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.164084</t>
+          <t>1.38378</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.167866</t>
+          <t>1.38579</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>20.7528</t>
+          <t>28.3801</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>48.5548</t>
+          <t>63.8053</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>9.6e-05</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7514,17 +7514,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>9.6e-05</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1.04909</t>
+          <t>1.27577</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1.0531</t>
+          <t>1.27764</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>16.8428</t>
+          <t>27.3884</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>43.4928</t>
+          <t>59.0915</t>
         </is>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7602,17 +7602,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>0.000133</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.223964</t>
+          <t>1.25163</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.228154</t>
+          <t>1.25383</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>16.242</t>
+          <t>18.2786</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>42.9551</t>
+          <t>45.6988</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000321</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7690,17 +7690,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>0.000321</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.201113</t>
+          <t>1.34182</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.204976</t>
+          <t>1.34393</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>22.9488</t>
+          <t>38.295</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>49.3868</t>
+          <t>71.0822</t>
         </is>
       </c>
     </row>
@@ -7763,7 +7763,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7778,17 +7778,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000136</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.208034</t>
+          <t>1.38627</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.211884</t>
+          <t>1.38817</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7808,12 +7808,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>17.5454</t>
+          <t>28.7763</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>43.4872</t>
+          <t>59.0446</t>
         </is>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7866,17 +7866,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3.9e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.200504</t>
+          <t>1.45942</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.204446</t>
+          <t>1.4614</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>23.4194</t>
+          <t>30.0224</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>55.7161</t>
+          <t>64.6286</t>
         </is>
       </c>
     </row>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7954,17 +7954,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.212256</t>
+          <t>1.48062</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.215382</t>
+          <t>1.48279</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7984,12 +7984,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20.9551</t>
+          <t>32.2601</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>50.7687</t>
+          <t>58.8674</t>
         </is>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8042,17 +8042,17 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>5.3e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.889461</t>
+          <t>1.24832</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.892903</t>
+          <t>1.25042</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>18.734</t>
+          <t>28.5815</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>48.5596</t>
+          <t>62.6119</t>
         </is>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8130,17 +8130,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>5.1e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1.10197</t>
+          <t>1.113</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>1.10599</t>
+          <t>1.11499</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8160,12 +8160,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>16.055</t>
+          <t>18.1596</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>44.8676</t>
+          <t>44.1363</t>
         </is>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8218,17 +8218,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3.6e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.168294</t>
+          <t>1.11732</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.172282</t>
+          <t>1.11922</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8248,12 +8248,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>12.7809</t>
+          <t>17.2347</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>37.06</t>
+          <t>38.7971</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8306,17 +8306,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>5e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.928909</t>
+          <t>1.2829</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.932902</t>
+          <t>1.28468</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21.4947</t>
+          <t>27.0493</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>51.0283</t>
+          <t>59.5302</t>
         </is>
       </c>
     </row>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8394,17 +8394,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.937331</t>
+          <t>1.34723</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.941189</t>
+          <t>1.34915</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20.1735</t>
+          <t>32.1862</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>47.4987</t>
+          <t>63.8201</t>
         </is>
       </c>
     </row>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8482,17 +8482,17 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3.4e-05</t>
+          <t>0.00012</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0.156642</t>
+          <t>1.36424</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.160479</t>
+          <t>1.36633</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>22.6464</t>
+          <t>28.3454</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>55.833</t>
+          <t>59.2662</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8570,17 +8570,17 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>8.1e-05</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.213471</t>
+          <t>1.30188</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.217276</t>
+          <t>1.30584</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8600,12 +8600,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>22.9006</t>
+          <t>28.907</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>52.8086</t>
+          <t>63.168</t>
         </is>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8658,17 +8658,17 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>4.4e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1.02566</t>
+          <t>1.12546</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>1.03008</t>
+          <t>1.12753</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8688,12 +8688,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>22.6969</t>
+          <t>17.3812</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>52.4114</t>
+          <t>47.7837</t>
         </is>
       </c>
     </row>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8746,17 +8746,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>5.2e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.998637</t>
+          <t>1.34829</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>1.00257</t>
+          <t>1.35029</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>22.7467</t>
+          <t>29.1113</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>53.22</t>
+          <t>60.9013</t>
         </is>
       </c>
     </row>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8834,17 +8834,17 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>9.5e-05</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.885669</t>
+          <t>1.35958</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.888661</t>
+          <t>1.3615</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>19.184</t>
+          <t>28.9652</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>48.0613</t>
+          <t>61.9882</t>
         </is>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>7.2e-05</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8922,17 +8922,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>7.2e-05</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.877717</t>
+          <t>1.19961</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.881531</t>
+          <t>1.20165</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>20.9794</t>
+          <t>28.1768</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>50.9981</t>
+          <t>59.9451</t>
         </is>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9010,17 +9010,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.206833</t>
+          <t>1.51811</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.210773</t>
+          <t>1.52006</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9040,12 +9040,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>22.6215</t>
+          <t>28.8807</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>52.0863</t>
+          <t>67.1916</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000176</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9098,17 +9098,17 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>0.000176</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1.12326</t>
+          <t>1.47128</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>1.12744</t>
+          <t>1.47338</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9128,12 +9128,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>23.4007</t>
+          <t>28.5635</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>55.0501</t>
+          <t>64.6107</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9186,17 +9186,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>4.9e-05</t>
+          <t>0.000198</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.903731</t>
+          <t>1.3499</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.907549</t>
+          <t>1.35204</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>20.8827</t>
+          <t>29.0818</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>51.2134</t>
+          <t>64.1991</t>
         </is>
       </c>
     </row>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>4.5e-05</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.929126</t>
+          <t>1.18243</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.932936</t>
+          <t>1.18425</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>19.7986</t>
+          <t>27.8826</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>48.3813</t>
+          <t>60.3441</t>
         </is>
       </c>
     </row>
